--- a/Modern_Excel_ACtivities/InputFiles/Acquisitions.xlsx
+++ b/Modern_Excel_ACtivities/InputFiles/Acquisitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCSantos\Documents\UiPath\Certification_ADPT_AE_Module6\Modern_Excel_ACtivities\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D718E-926E-4D02-B341-316749D78922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1ABD4A-AFF7-4D42-8EE7-2502028587D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="16755" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
